--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_22.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_22.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_9</t>
+          <t>model_1_22_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.988755425064504</v>
+        <v>0.9128095681626615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7279358593888492</v>
+        <v>0.7154680846840795</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7068806270360245</v>
+        <v>0.6155685919049746</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9045445874108438</v>
+        <v>-0.6329843367427745</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04719107553630783</v>
+        <v>0.3659195904231533</v>
       </c>
       <c r="G2" t="n">
-        <v>1.819294161006943</v>
+        <v>1.902666227866561</v>
       </c>
       <c r="H2" t="n">
-        <v>1.048471001054365</v>
+        <v>1.375088856142126</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08321940570564304</v>
+        <v>0.9798880605366943</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4772456676294363</v>
+        <v>2.195039351223926</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2172350697661587</v>
+        <v>0.60491287837436</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006582190206144</v>
+        <v>0.7010613765576965</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2264832164246917</v>
+        <v>0.630665271949041</v>
       </c>
       <c r="N2" t="n">
-        <v>136.1071009637773</v>
+        <v>36.01068333603074</v>
       </c>
       <c r="O2" t="n">
-        <v>215.3340295802103</v>
+        <v>56.73157235879015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_8</t>
+          <t>model_1_22_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9888056201698666</v>
+        <v>0.9127045730523985</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7278472469021855</v>
+        <v>0.7153049409767307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7068764628827247</v>
+        <v>0.6151292110467566</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9093036764344693</v>
+        <v>-0.6497408235458646</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04698041741696538</v>
+        <v>0.3663602324401068</v>
       </c>
       <c r="G3" t="n">
-        <v>1.819886713113287</v>
+        <v>1.90375717058881</v>
       </c>
       <c r="H3" t="n">
-        <v>1.048485895989266</v>
+        <v>1.376660495995206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07907036324169206</v>
+        <v>0.9899429526660576</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4816062985582791</v>
+        <v>2.203563988667874</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2167496653214611</v>
+        <v>0.6052769881964015</v>
       </c>
       <c r="L3" t="n">
-        <v>1.006552807705444</v>
+        <v>0.7007013933225091</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2259771473078575</v>
+        <v>0.6310448826800181</v>
       </c>
       <c r="N3" t="n">
-        <v>136.1160488295959</v>
+        <v>36.0082763759787</v>
       </c>
       <c r="O3" t="n">
-        <v>215.342977446029</v>
+        <v>56.72916539873811</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_7</t>
+          <t>model_1_22_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9888487099253261</v>
+        <v>0.9125931503095651</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7277530876923994</v>
+        <v>0.7151409255686683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7068613543778112</v>
+        <v>0.6146902823845726</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9139619270847693</v>
+        <v>-0.6664872929411672</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04679957893117136</v>
+        <v>0.3668278498559432</v>
       </c>
       <c r="G4" t="n">
-        <v>1.820516356182689</v>
+        <v>1.904853942377746</v>
       </c>
       <c r="H4" t="n">
-        <v>1.048539938235301</v>
+        <v>1.378230518369292</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07500923312626974</v>
+        <v>0.9999918337528975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4860066298464639</v>
+        <v>2.212045661220897</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2163321033299759</v>
+        <v>0.6056631488343527</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006527584433955</v>
+        <v>0.7003193724899375</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2255418088379224</v>
+        <v>0.6314474829757896</v>
       </c>
       <c r="N4" t="n">
-        <v>136.1237621465924</v>
+        <v>36.00572522987837</v>
       </c>
       <c r="O4" t="n">
-        <v>215.3506907630255</v>
+        <v>56.72661425263777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_6</t>
+          <t>model_1_22_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9888842930362175</v>
+        <v>0.9124753270137758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7276530147231911</v>
+        <v>0.7149759996680349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.706833981876246</v>
+        <v>0.6142517660951807</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9185130228798225</v>
+        <v>-0.6832240884565748</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04665024422678962</v>
+        <v>0.3673223290233126</v>
       </c>
       <c r="G5" t="n">
-        <v>1.821185544588579</v>
+        <v>1.905956802634695</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04863784808625</v>
+        <v>1.379799065709811</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07104152215943445</v>
+        <v>1.010034909934451</v>
       </c>
       <c r="J5" t="n">
-        <v>0.490445466950742</v>
+        <v>2.220484918573691</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2159866760399577</v>
+        <v>0.6060712243815183</v>
       </c>
       <c r="L5" t="n">
-        <v>1.006506755295873</v>
+        <v>0.699915406904374</v>
       </c>
       <c r="M5" t="n">
-        <v>0.225181675993035</v>
+        <v>0.6318729311438308</v>
       </c>
       <c r="N5" t="n">
-        <v>136.1301542328031</v>
+        <v>36.00303107134584</v>
       </c>
       <c r="O5" t="n">
-        <v>215.3570828492361</v>
+        <v>56.72392009410525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_5</t>
+          <t>model_1_22_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9889119568920829</v>
+        <v>0.9123511764298049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7275469537064257</v>
+        <v>0.7148102017355256</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7067939628786635</v>
+        <v>0.6138138160749702</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9229482566033248</v>
+        <v>-0.6999527573142112</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04653414494164453</v>
+        <v>0.3678433624656309</v>
       </c>
       <c r="G6" t="n">
-        <v>1.821894775096055</v>
+        <v>1.907065494172814</v>
       </c>
       <c r="H6" t="n">
-        <v>1.048780993720168</v>
+        <v>1.381365587538303</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06717482141796786</v>
+        <v>1.020073109636334</v>
       </c>
       <c r="J6" t="n">
-        <v>0.494924511722747</v>
+        <v>2.228883700831735</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2157177436875431</v>
+        <v>0.6065009171185406</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006490561819269</v>
+        <v>0.6994897477593311</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2249012946336114</v>
+        <v>0.6323209167902548</v>
       </c>
       <c r="N6" t="n">
-        <v>136.1351378720694</v>
+        <v>36.00019615379956</v>
       </c>
       <c r="O6" t="n">
-        <v>215.3620664885025</v>
+        <v>56.72108517655897</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_4</t>
+          <t>model_1_22_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9889313422720051</v>
+        <v>0.9122210223150751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7274346427937924</v>
+        <v>0.7146436565407044</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7067406906769886</v>
+        <v>0.6133762478530469</v>
       </c>
       <c r="E7" t="n">
-        <v>0.927259335675923</v>
+        <v>-0.716667983712507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04645278864908083</v>
+        <v>0.3683895914422542</v>
       </c>
       <c r="G7" t="n">
-        <v>1.822645798685978</v>
+        <v>1.908179182657454</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04897154529666</v>
+        <v>1.38293074369646</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06341636049217628</v>
+        <v>1.03010324306035</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4994436521089324</v>
+        <v>2.237237220816039</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2155290900298167</v>
+        <v>0.6069510618182113</v>
       </c>
       <c r="L7" t="n">
-        <v>1.006479214279802</v>
+        <v>0.6990435050802575</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2247046095991087</v>
+        <v>0.6327902250817186</v>
       </c>
       <c r="N7" t="n">
-        <v>136.1386375600441</v>
+        <v>35.9972284568284</v>
       </c>
       <c r="O7" t="n">
-        <v>215.3655661764772</v>
+        <v>56.7181174795878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_3</t>
+          <t>model_1_22_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9889420096006756</v>
+        <v>0.9120850398751146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7273156847800377</v>
+        <v>0.7144763351632109</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7066739141059404</v>
+        <v>0.6129394010623285</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9314392158504617</v>
+        <v>-0.7333686831826627</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04640802015263282</v>
+        <v>0.3689602806530601</v>
       </c>
       <c r="G8" t="n">
-        <v>1.823441271471707</v>
+        <v>1.909298061479197</v>
       </c>
       <c r="H8" t="n">
-        <v>1.049210401219371</v>
+        <v>1.384493319337027</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05977228065834793</v>
+        <v>1.040124659460496</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5040090758834145</v>
+        <v>2.245547768044823</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2154252077929433</v>
+        <v>0.6074210077475589</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006472969989848</v>
+        <v>0.6985772795718215</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2245963048803458</v>
+        <v>0.6332801775822006</v>
       </c>
       <c r="N8" t="n">
-        <v>136.1405659731387</v>
+        <v>35.99413256248376</v>
       </c>
       <c r="O8" t="n">
-        <v>215.3674945895717</v>
+        <v>56.71502158524316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_2</t>
+          <t>model_1_22_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9889435669398479</v>
+        <v>0.911943220316721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7271900585166251</v>
+        <v>0.7143083421589216</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7065930746659123</v>
+        <v>0.6125027759146875</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9354775447173145</v>
+        <v>-0.7500559102710174</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04640148433327639</v>
+        <v>0.3695554670012383</v>
       </c>
       <c r="G9" t="n">
-        <v>1.824281334873602</v>
+        <v>1.910421431472416</v>
       </c>
       <c r="H9" t="n">
-        <v>1.049499559209012</v>
+        <v>1.386055102173158</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05625160729653579</v>
+        <v>1.050137991627515</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5086126840922457</v>
+        <v>2.253817543736868</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2154100376799475</v>
+        <v>0.6079107393369838</v>
       </c>
       <c r="L9" t="n">
-        <v>1.006472058376674</v>
+        <v>0.6980910410859007</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2245804889442332</v>
+        <v>0.6337907580592715</v>
       </c>
       <c r="N9" t="n">
-        <v>136.1408476606406</v>
+        <v>35.99090887237868</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3677762770736</v>
+        <v>56.71179789513809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_1</t>
+          <t>model_1_22_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9889354669720046</v>
+        <v>0.9117957756752504</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7270573958197108</v>
+        <v>0.7141396900561952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7064970648084504</v>
+        <v>0.6120667876924211</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9393652004779683</v>
+        <v>-0.7667287488832795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04643547816554918</v>
+        <v>0.3701742606197592</v>
       </c>
       <c r="G10" t="n">
-        <v>1.825168450938724</v>
+        <v>1.911549208859919</v>
       </c>
       <c r="H10" t="n">
-        <v>1.049842980902181</v>
+        <v>1.387614606764155</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05286229292227172</v>
+        <v>1.060142689850155</v>
       </c>
       <c r="J10" t="n">
-        <v>0.513262387256883</v>
+        <v>2.262045604517125</v>
       </c>
       <c r="K10" t="n">
-        <v>0.21548892817393</v>
+        <v>0.6084194775151097</v>
       </c>
       <c r="L10" t="n">
-        <v>1.006476799821266</v>
+        <v>0.6975855166008584</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2246627379698704</v>
+        <v>0.6343211542748735</v>
       </c>
       <c r="N10" t="n">
-        <v>136.1393829925654</v>
+        <v>35.98756281913924</v>
       </c>
       <c r="O10" t="n">
-        <v>215.3663116089984</v>
+        <v>56.70845184189864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_22_0</t>
+          <t>model_1_22_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9889172598864462</v>
+        <v>0.9116429496856353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7269174719160276</v>
+        <v>0.7139704571638883</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7063854489180854</v>
+        <v>0.6116313330170056</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9430916293113314</v>
+        <v>-0.7833827763801919</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04651188940873168</v>
+        <v>0.370815638605251</v>
       </c>
       <c r="G11" t="n">
-        <v>1.826104122726944</v>
+        <v>1.91268086999002</v>
       </c>
       <c r="H11" t="n">
-        <v>1.050242224470155</v>
+        <v>1.389172202889004</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0496135385090299</v>
+        <v>1.070136100280916</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5179544046295853</v>
+        <v>2.270230871672932</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2156661526729025</v>
+        <v>0.6089463347498292</v>
       </c>
       <c r="L11" t="n">
-        <v>1.006487457627446</v>
+        <v>0.6970615417793211</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2248475072826694</v>
+        <v>0.6348704409128196</v>
       </c>
       <c r="N11" t="n">
-        <v>136.1360946257234</v>
+        <v>35.98410054173794</v>
       </c>
       <c r="O11" t="n">
-        <v>215.3630232421564</v>
+        <v>56.70498956449735</v>
       </c>
     </row>
   </sheetData>
